--- a/Sample Data/Workflow Examples/Workflow 2 - Personalized Files/Keyword Expertise/7 Aldo Range UniversityofLethbridge KeywordExpertise.xlsx
+++ b/Sample Data/Workflow Examples/Workflow 2 - Personalized Files/Keyword Expertise/7 Aldo Range UniversityofLethbridge KeywordExpertise.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvmm\Dropbox\Berts Files\Work in DROPBOX\CoSeT\GitHub Version\Sample Data\Sample 25P 10M 3C 4R\Keyword Expertise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvmm\Dropbox\Berts Files\Work in DROPBOX\CoSeT\GitHub Version\Sample Data\Workflow Examples\Workflow 2 - Personalized Files\Keyword Expertise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B8AC87C-6406-4351-A716-96A7CECAD6BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0448D3BC-6F57-429C-988E-E13E4E899B5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4901D1C-24F2-4E46-8B6A-170F8BCBB1C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82BEA036-B1F1-4B05-B52A-1715785FCD80}"/>
   </bookViews>
   <sheets>
     <sheet name="Expertise by Keywords - Instr." sheetId="1" r:id="rId1"/>
@@ -42,13 +42,13 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={8B64E0B5-98D8-4EAD-918F-24F9508A4895}</author>
-    <author>tc={76C10373-1E7C-4482-8DB2-CA61990793B1}</author>
-    <author>tc={75E4071E-FD3C-4959-AA95-BE188ABAACA5}</author>
-    <author>tc={18B60A1C-BF3E-45E2-B752-3A43D856DA4A}</author>
+    <author>tc={2DC00B4C-A531-42F3-88CC-08B0698F3290}</author>
+    <author>tc={2998D77D-9AD0-465D-8D9F-A2D3FE2852E3}</author>
+    <author>tc={61AB5E90-584B-4904-981C-0C08A3A11C3D}</author>
+    <author>tc={5D4C2450-DAD7-4366-BA02-A7AF41026E6E}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{8B64E0B5-98D8-4EAD-918F-24F9508A4895}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{2DC00B4C-A531-42F3-88CC-08B0698F3290}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +56,7 @@
     Revise or delete column &amp; header.</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{76C10373-1E7C-4482-8DB2-CA61990793B1}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{2998D77D-9AD0-465D-8D9F-A2D3FE2852E3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +64,7 @@
     Add or subtract columns as you want.</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{75E4071E-FD3C-4959-AA95-BE188ABAACA5}">
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{61AB5E90-584B-4904-981C-0C08A3A11C3D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +72,7 @@
     Revise or delete column &amp; header.</t>
       </text>
     </comment>
-    <comment ref="F1" authorId="3" shapeId="0" xr:uid="{18B60A1C-BF3E-45E2-B752-3A43D856DA4A}">
+    <comment ref="F1" authorId="3" shapeId="0" xr:uid="{5D4C2450-DAD7-4366-BA02-A7AF41026E6E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -661,7 +661,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="bert van den Berg" id="{F5C32B7B-1A75-4A97-91CE-59FE4B3FBC2E}" userId="ee31b047394a070d" providerId="Windows Live"/>
+  <person displayName="bert van den Berg" id="{442570E4-67E0-44DB-B1D0-1B9E2126EC0B}" userId="ee31b047394a070d" providerId="Windows Live"/>
 </personList>
 </file>
 
@@ -962,23 +962,23 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C1" dT="2021-01-28T13:53:38.10" personId="{F5C32B7B-1A75-4A97-91CE-59FE4B3FBC2E}" id="{8B64E0B5-98D8-4EAD-918F-24F9508A4895}">
+  <threadedComment ref="C1" dT="2021-01-28T13:53:38.10" personId="{442570E4-67E0-44DB-B1D0-1B9E2126EC0B}" id="{2DC00B4C-A531-42F3-88CC-08B0698F3290}">
     <text>Revise or delete column &amp; header.</text>
   </threadedComment>
-  <threadedComment ref="D1" dT="2021-01-28T13:53:13.01" personId="{F5C32B7B-1A75-4A97-91CE-59FE4B3FBC2E}" id="{76C10373-1E7C-4482-8DB2-CA61990793B1}">
+  <threadedComment ref="D1" dT="2021-01-28T13:53:13.01" personId="{442570E4-67E0-44DB-B1D0-1B9E2126EC0B}" id="{2998D77D-9AD0-465D-8D9F-A2D3FE2852E3}">
     <text>Add or subtract columns as you want.</text>
   </threadedComment>
-  <threadedComment ref="E1" dT="2021-01-28T13:53:53.73" personId="{F5C32B7B-1A75-4A97-91CE-59FE4B3FBC2E}" id="{75E4071E-FD3C-4959-AA95-BE188ABAACA5}">
+  <threadedComment ref="E1" dT="2021-01-28T13:53:53.73" personId="{442570E4-67E0-44DB-B1D0-1B9E2126EC0B}" id="{61AB5E90-584B-4904-981C-0C08A3A11C3D}">
     <text>Revise or delete column &amp; header.</text>
   </threadedComment>
-  <threadedComment ref="F1" dT="2021-01-28T13:47:47.80" personId="{F5C32B7B-1A75-4A97-91CE-59FE4B3FBC2E}" id="{18B60A1C-BF3E-45E2-B752-3A43D856DA4A}">
+  <threadedComment ref="F1" dT="2021-01-28T13:47:47.80" personId="{442570E4-67E0-44DB-B1D0-1B9E2126EC0B}" id="{5D4C2450-DAD7-4366-BA02-A7AF41026E6E}">
     <text>Do not edit the text in this cell</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB2437A-1880-4764-B05A-662694911DBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F66667-95FA-4E1C-B2B9-D621F41EDCAE}">
   <sheetPr codeName="Sheet24">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -1020,7 +1020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F60E4C-AEBB-4423-B839-43881B9F2022}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE33CFD0-39FA-4C95-9C29-9F70A1879F54}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -1028,7 +1028,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A10" sqref="A10:K10"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2:F26"/>
     </sheetView>
   </sheetViews>
@@ -1531,7 +1531,7 @@
       <c r="F26" s="27"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Uaq5oujh8khhZEAsbpU3oN9pwsaYhUyGmfxqeQhVrdHjpvnKF5mHD4QHswqzGyiGu33AyvUNsfawSKrd5ar3yg==" saltValue="Tx/pry0XWLz7JpJrtvvt9A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Y3/nrmjMb/L1IwtAfuQEJ4QTaYwu2UwkiGR58wqQyjwLKw2vRdrpOUkdkBsa01xluGYwN3cNPmBJ7cxtm2D52A==" saltValue="ZzlvfkcQmzUF9howBPwf/w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="F1:F2" xr:uid="{2C882CF7-77D0-4BB2-911E-FEB4C8572A61}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1540,7 +1540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564B3EC4-9150-404F-838E-0C837736C2E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DBBC69-AE50-48F8-9464-673A4B006AAB}">
   <sheetPr codeName="Sheet25">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -1548,7 +1548,7 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A10" sqref="A10:K10"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C101"/>
     </sheetView>
   </sheetViews>
@@ -1587,9 +1587,7 @@
       <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>103</v>
-      </c>
+      <c r="C2" s="28"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
         <v>4</v>
@@ -1605,7 +1603,9 @@
       <c r="B3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="28" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
@@ -1614,7 +1614,9 @@
       <c r="B4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="28" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
@@ -1634,9 +1636,7 @@
       <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>103</v>
-      </c>
+      <c r="C6" s="28"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
@@ -1645,9 +1645,7 @@
       <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>103</v>
-      </c>
+      <c r="C7" s="28"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
@@ -1656,9 +1654,7 @@
       <c r="B8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>103</v>
-      </c>
+      <c r="C8" s="28"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
@@ -1687,7 +1683,9 @@
       <c r="B11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="28" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
@@ -1696,7 +1694,9 @@
       <c r="B12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="28" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="29"/>
@@ -1966,7 +1966,7 @@
       <c r="C101" s="29"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1vn5fIrypaEe9X64HapyoQUvMHxVTI9u7phM29ufj7xKmNr4mhe/PBkT4J2ZPPyYUFUstHSftq995taF4wbakw==" saltValue="AMyVVuOkeLsJZ37bryWuSg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XfKRCJiG6ow1mszkGZppvGbx5JQ2LypgQtWCFuk+UwmHp2t8vojDyg/OH6IDAaTS7n0xVBYG/185Q+mAxHBAQg==" saltValue="kzH2VTNvbqgeGB9NHDwpSQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="C1:C12" xr:uid="{2C882CF7-77D0-4BB2-911E-FEB4C8572A61}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
